--- a/src/main/resources/excel/gmc-offer-letter-temp.xlsx
+++ b/src/main/resources/excel/gmc-offer-letter-temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\MyGit\eclipse\omak-backend\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E28E1CB-3637-40AE-B8C6-DDB4308E7220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE7B62-0F80-492B-A2F5-486985822380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teklifler" sheetId="5" state="hidden" r:id="rId1"/>
@@ -3259,45 +3259,6 @@
     <xf numFmtId="166" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="13"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3307,8 +3268,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -3318,6 +3285,39 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -46880,8 +46880,8 @@
   </sheetPr>
   <dimension ref="A1:AM420"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77:N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46989,23 +46989,23 @@
       </c>
     </row>
     <row r="15" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="51" t="s">
         <v>898</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="J15" s="39" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="J15" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="43" t="s">
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="50" t="s">
         <v>900</v>
       </c>
       <c r="Q15" s="23" t="s">
@@ -47013,39 +47013,39 @@
       </c>
     </row>
     <row r="16" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="38"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="51"/>
       <c r="Q16" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="51" t="s">
         <v>899</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="J17" s="39" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="J17" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="44" t="s">
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54" t="s">
         <v>901</v>
       </c>
       <c r="Q17" s="23" t="s">
@@ -47053,30 +47053,30 @@
       </c>
     </row>
     <row r="18" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="44"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="38" t="s">
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="51" t="s">
         <v>902</v>
       </c>
       <c r="P19" s="15"/>
@@ -47085,11 +47085,11 @@
       </c>
     </row>
     <row r="20" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="38"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="51"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="23" t="s">
         <v>0</v>
@@ -47681,258 +47681,258 @@
       </c>
     </row>
     <row r="57" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J57" s="40" t="s">
+      <c r="J57" s="46" t="s">
         <v>903</v>
       </c>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J59" s="41" t="s">
+      <c r="J59" s="47" t="s">
         <v>904</v>
       </c>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J61" s="46" t="s">
+      <c r="J61" s="48" t="s">
         <v>905</v>
       </c>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J63" s="40" t="s">
+      <c r="J63" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J65" s="40" t="s">
+      <c r="J65" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J67" s="41" t="s">
+      <c r="J67" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J69" s="40" t="s">
+      <c r="J69" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
       <c r="P71" s="15"/>
       <c r="Q71" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
       <c r="P77" s="15"/>
       <c r="Q77" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
       <c r="P78" s="15"/>
       <c r="Q78" s="23" t="s">
         <v>0</v>
@@ -48086,39 +48086,39 @@
       </c>
     </row>
     <row r="104" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="35" t="s">
+      <c r="A104" s="38" t="s">
         <v>892</v>
       </c>
-      <c r="B104" s="50" t="s">
+      <c r="B104" s="37" t="s">
         <v>891</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D104" s="35" t="s">
+      <c r="D104" s="38" t="s">
         <v>893</v>
       </c>
-      <c r="E104" s="35" t="s">
+      <c r="E104" s="38" t="s">
         <v>894</v>
       </c>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35" t="s">
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="L104" s="35" t="s">
+      <c r="L104" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="M104" s="35" t="s">
+      <c r="M104" s="38" t="s">
         <v>896</v>
       </c>
-      <c r="N104" s="35" t="s">
+      <c r="N104" s="38" t="s">
         <v>895</v>
       </c>
-      <c r="O104" s="35" t="s">
+      <c r="O104" s="38" t="s">
         <v>61</v>
       </c>
       <c r="Q104" s="23" t="s">
@@ -48126,21 +48126,21 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="35"/>
-      <c r="M105" s="35"/>
-      <c r="N105" s="35"/>
-      <c r="O105" s="35"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="38"/>
+      <c r="O105" s="38"/>
       <c r="Q105" s="23" t="s">
         <v>0</v>
       </c>
@@ -48152,12 +48152,12 @@
       <c r="B106" s="32"/>
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
       <c r="K106" s="33"/>
       <c r="L106" s="33"/>
       <c r="M106" s="34"/>
@@ -48171,12 +48171,12 @@
       <c r="B107" s="32"/>
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
       <c r="K107" s="33"/>
       <c r="L107" s="33"/>
       <c r="M107" s="34"/>
@@ -48190,12 +48190,12 @@
       <c r="B108" s="32"/>
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
       <c r="K108" s="33"/>
       <c r="L108" s="33"/>
       <c r="M108" s="34"/>
@@ -48209,12 +48209,12 @@
       <c r="B109" s="32"/>
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
       <c r="K109" s="33"/>
       <c r="L109" s="33"/>
       <c r="M109" s="34"/>
@@ -48228,12 +48228,12 @@
       <c r="B110" s="32"/>
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
       <c r="K110" s="33"/>
       <c r="L110" s="33"/>
       <c r="M110" s="34"/>
@@ -48247,12 +48247,12 @@
       <c r="B111" s="32"/>
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
       <c r="K111" s="33"/>
       <c r="L111" s="33"/>
       <c r="M111" s="34"/>
@@ -48266,12 +48266,12 @@
       <c r="B112" s="32"/>
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="40"/>
       <c r="K112" s="33"/>
       <c r="L112" s="33"/>
       <c r="M112" s="34"/>
@@ -48285,12 +48285,12 @@
       <c r="B113" s="32"/>
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="40"/>
       <c r="K113" s="33"/>
       <c r="L113" s="33"/>
       <c r="M113" s="34"/>
@@ -48304,12 +48304,12 @@
       <c r="B114" s="32"/>
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
       <c r="K114" s="33"/>
       <c r="L114" s="33"/>
       <c r="M114" s="34"/>
@@ -48323,12 +48323,12 @@
       <c r="B115" s="32"/>
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="40"/>
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
       <c r="M115" s="34"/>
@@ -48342,12 +48342,12 @@
       <c r="B116" s="32"/>
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="40"/>
       <c r="K116" s="33"/>
       <c r="L116" s="33"/>
       <c r="M116" s="34"/>
@@ -48361,12 +48361,12 @@
       <c r="B117" s="32"/>
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="40"/>
       <c r="K117" s="33"/>
       <c r="L117" s="33"/>
       <c r="M117" s="34"/>
@@ -48395,69 +48395,69 @@
       <c r="P119" s="15"/>
     </row>
     <row r="120" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="51" t="s">
+      <c r="A120" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="N120" s="47" t="s">
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="N120" s="44" t="s">
         <v>906</v>
       </c>
-      <c r="O120" s="47"/>
+      <c r="O120" s="44"/>
       <c r="P120" s="15"/>
     </row>
     <row r="121" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="51"/>
-      <c r="B121" s="51"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="N121" s="47"/>
-      <c r="O121" s="47"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="N121" s="44"/>
+      <c r="O121" s="44"/>
       <c r="P121" s="15"/>
     </row>
     <row r="122" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="51" t="s">
+      <c r="A122" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="51"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="N122" s="47" t="s">
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="N122" s="44" t="s">
         <v>907</v>
       </c>
-      <c r="O122" s="47"/>
+      <c r="O122" s="44"/>
       <c r="P122" s="15"/>
     </row>
     <row r="123" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="51"/>
-      <c r="B123" s="51"/>
-      <c r="C123" s="51"/>
-      <c r="D123" s="51"/>
-      <c r="N123" s="47"/>
-      <c r="O123" s="47"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="N123" s="44"/>
+      <c r="O123" s="44"/>
       <c r="P123" s="15"/>
     </row>
     <row r="124" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="51" t="s">
+      <c r="A124" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="51"/>
-      <c r="C124" s="51"/>
-      <c r="D124" s="51"/>
-      <c r="N124" s="47" t="s">
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="N124" s="44" t="s">
         <v>908</v>
       </c>
-      <c r="O124" s="47"/>
+      <c r="O124" s="44"/>
       <c r="P124" s="15"/>
     </row>
     <row r="125" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="51"/>
-      <c r="B125" s="51"/>
-      <c r="C125" s="51"/>
-      <c r="D125" s="51"/>
-      <c r="N125" s="47"/>
-      <c r="O125" s="47"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="N125" s="44"/>
+      <c r="O125" s="44"/>
       <c r="P125" s="15"/>
     </row>
     <row r="126" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -48482,303 +48482,303 @@
       <c r="P127" s="15"/>
     </row>
     <row r="128" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="52" t="s">
+      <c r="A128" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B128" s="52"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="52"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="52"/>
-      <c r="H128" s="52"/>
-      <c r="I128" s="52"/>
-      <c r="J128" s="52"/>
-      <c r="K128" s="52"/>
-      <c r="L128" s="52"/>
-      <c r="M128" s="52"/>
-      <c r="N128" s="52"/>
-      <c r="O128" s="52"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="41"/>
+      <c r="N128" s="41"/>
+      <c r="O128" s="41"/>
       <c r="P128" s="15"/>
     </row>
     <row r="129" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="52"/>
-      <c r="I129" s="52"/>
-      <c r="J129" s="52"/>
-      <c r="K129" s="52"/>
-      <c r="L129" s="52"/>
-      <c r="M129" s="52"/>
-      <c r="N129" s="52"/>
-      <c r="O129" s="52"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
+      <c r="L129" s="41"/>
+      <c r="M129" s="41"/>
+      <c r="N129" s="41"/>
+      <c r="O129" s="41"/>
       <c r="P129" s="15"/>
     </row>
     <row r="130" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="52"/>
-      <c r="B130" s="52"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="52"/>
-      <c r="H130" s="52"/>
-      <c r="I130" s="52"/>
-      <c r="J130" s="52"/>
-      <c r="K130" s="52"/>
-      <c r="L130" s="52"/>
-      <c r="M130" s="52"/>
-      <c r="N130" s="52"/>
-      <c r="O130" s="52"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="41"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="41"/>
       <c r="P130" s="15"/>
     </row>
     <row r="131" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="53" t="s">
+      <c r="A131" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B131" s="53"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="53"/>
-      <c r="E131" s="53"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="53"/>
-      <c r="H131" s="53"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="53"/>
-      <c r="M131" s="53"/>
-      <c r="N131" s="53"/>
-      <c r="O131" s="53"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="42"/>
+      <c r="M131" s="42"/>
+      <c r="N131" s="42"/>
+      <c r="O131" s="42"/>
       <c r="P131" s="15"/>
     </row>
     <row r="132" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="53"/>
-      <c r="M132" s="53"/>
-      <c r="N132" s="53"/>
-      <c r="O132" s="53"/>
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="42"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="42"/>
       <c r="P132" s="15"/>
     </row>
     <row r="133" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="53" t="s">
+      <c r="A133" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="53"/>
-      <c r="M133" s="53"/>
-      <c r="N133" s="53"/>
-      <c r="O133" s="53"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="42"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="42"/>
+      <c r="O133" s="42"/>
       <c r="P133" s="15"/>
     </row>
     <row r="134" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="53"/>
-      <c r="E134" s="53"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="53"/>
-      <c r="H134" s="53"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="53"/>
-      <c r="L134" s="53"/>
-      <c r="M134" s="53"/>
-      <c r="N134" s="53"/>
-      <c r="O134" s="53"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="42"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+      <c r="K134" s="42"/>
+      <c r="L134" s="42"/>
+      <c r="M134" s="42"/>
+      <c r="N134" s="42"/>
+      <c r="O134" s="42"/>
       <c r="P134" s="15"/>
     </row>
     <row r="135" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="53" t="s">
+      <c r="A135" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
-      <c r="H135" s="53"/>
-      <c r="I135" s="53"/>
-      <c r="J135" s="53"/>
-      <c r="K135" s="53"/>
-      <c r="L135" s="53"/>
-      <c r="M135" s="53"/>
-      <c r="N135" s="53"/>
-      <c r="O135" s="53"/>
+      <c r="B135" s="42"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
+      <c r="K135" s="42"/>
+      <c r="L135" s="42"/>
+      <c r="M135" s="42"/>
+      <c r="N135" s="42"/>
+      <c r="O135" s="42"/>
       <c r="P135" s="15"/>
     </row>
     <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="53"/>
-      <c r="H136" s="53"/>
-      <c r="I136" s="53"/>
-      <c r="J136" s="53"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="53"/>
-      <c r="M136" s="53"/>
-      <c r="N136" s="53"/>
-      <c r="O136" s="53"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="42"/>
+      <c r="M136" s="42"/>
+      <c r="N136" s="42"/>
+      <c r="O136" s="42"/>
       <c r="P136" s="15"/>
     </row>
     <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="54" t="s">
+      <c r="A137" s="43" t="s">
         <v>897</v>
       </c>
-      <c r="B137" s="54"/>
-      <c r="C137" s="54"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="54"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="54"/>
-      <c r="H137" s="54"/>
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
-      <c r="K137" s="54"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="54"/>
-      <c r="O137" s="54"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="43"/>
+      <c r="I137" s="43"/>
+      <c r="J137" s="43"/>
+      <c r="K137" s="43"/>
+      <c r="L137" s="43"/>
+      <c r="M137" s="43"/>
+      <c r="N137" s="43"/>
+      <c r="O137" s="43"/>
       <c r="P137" s="15"/>
     </row>
     <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="54"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="54"/>
-      <c r="F138" s="54"/>
-      <c r="G138" s="54"/>
-      <c r="H138" s="54"/>
-      <c r="I138" s="54"/>
-      <c r="J138" s="54"/>
-      <c r="K138" s="54"/>
-      <c r="L138" s="54"/>
-      <c r="M138" s="54"/>
-      <c r="N138" s="54"/>
-      <c r="O138" s="54"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="43"/>
+      <c r="M138" s="43"/>
+      <c r="N138" s="43"/>
+      <c r="O138" s="43"/>
       <c r="P138" s="15"/>
     </row>
     <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="54"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="54"/>
-      <c r="G139" s="54"/>
-      <c r="H139" s="54"/>
-      <c r="I139" s="54"/>
-      <c r="J139" s="54"/>
-      <c r="K139" s="54"/>
-      <c r="L139" s="54"/>
-      <c r="M139" s="54"/>
-      <c r="N139" s="54"/>
-      <c r="O139" s="54"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43"/>
+      <c r="G139" s="43"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="43"/>
+      <c r="J139" s="43"/>
+      <c r="K139" s="43"/>
+      <c r="L139" s="43"/>
+      <c r="M139" s="43"/>
+      <c r="N139" s="43"/>
+      <c r="O139" s="43"/>
       <c r="P139" s="15"/>
     </row>
     <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="54"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="54"/>
-      <c r="H140" s="54"/>
-      <c r="I140" s="54"/>
-      <c r="J140" s="54"/>
-      <c r="K140" s="54"/>
-      <c r="L140" s="54"/>
-      <c r="M140" s="54"/>
-      <c r="N140" s="54"/>
-      <c r="O140" s="54"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="43"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="43"/>
+      <c r="M140" s="43"/>
+      <c r="N140" s="43"/>
+      <c r="O140" s="43"/>
       <c r="P140" s="15"/>
     </row>
     <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="48" t="s">
+      <c r="A141" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B141" s="48"/>
-      <c r="C141" s="49"/>
-      <c r="D141" s="49"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="49"/>
-      <c r="G141" s="49"/>
-      <c r="H141" s="49"/>
-      <c r="I141" s="49"/>
-      <c r="J141" s="49"/>
-      <c r="K141" s="49"/>
-      <c r="L141" s="49"/>
-      <c r="M141" s="49"/>
-      <c r="N141" s="49"/>
-      <c r="O141" s="49"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="36"/>
+      <c r="N141" s="36"/>
+      <c r="O141" s="36"/>
       <c r="P141" s="15"/>
     </row>
     <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="49"/>
-      <c r="B142" s="49"/>
-      <c r="C142" s="49"/>
-      <c r="D142" s="49"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="49"/>
-      <c r="G142" s="49"/>
-      <c r="H142" s="49"/>
-      <c r="I142" s="49"/>
-      <c r="J142" s="49"/>
-      <c r="K142" s="49"/>
-      <c r="L142" s="49"/>
-      <c r="M142" s="49"/>
-      <c r="N142" s="49"/>
-      <c r="O142" s="49"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="36"/>
+      <c r="N142" s="36"/>
+      <c r="O142" s="36"/>
       <c r="P142" s="15"/>
     </row>
     <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="49"/>
-      <c r="B143" s="49"/>
-      <c r="C143" s="49"/>
-      <c r="D143" s="49"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="49"/>
-      <c r="H143" s="49"/>
-      <c r="I143" s="49"/>
-      <c r="J143" s="49"/>
-      <c r="K143" s="49"/>
-      <c r="L143" s="49"/>
-      <c r="M143" s="49"/>
-      <c r="N143" s="49"/>
-      <c r="O143" s="49"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
+      <c r="L143" s="36"/>
+      <c r="M143" s="36"/>
+      <c r="N143" s="36"/>
+      <c r="O143" s="36"/>
       <c r="P143" s="15"/>
     </row>
     <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -53754,6 +53754,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="E108:J108"/>
+    <mergeCell ref="E106:J106"/>
+    <mergeCell ref="E109:J109"/>
+    <mergeCell ref="E110:J110"/>
+    <mergeCell ref="E111:J111"/>
+    <mergeCell ref="E112:J112"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="J15:M16"/>
+    <mergeCell ref="E107:J107"/>
+    <mergeCell ref="J63:N64"/>
+    <mergeCell ref="J65:N66"/>
+    <mergeCell ref="J67:N68"/>
+    <mergeCell ref="J69:O70"/>
+    <mergeCell ref="J71:N72"/>
+    <mergeCell ref="J73:N74"/>
+    <mergeCell ref="J19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="J17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="C29:N53"/>
+    <mergeCell ref="J57:N58"/>
+    <mergeCell ref="J59:N60"/>
+    <mergeCell ref="J61:N62"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="J75:N76"/>
+    <mergeCell ref="J77:N78"/>
+    <mergeCell ref="N120:O121"/>
+    <mergeCell ref="N122:O123"/>
+    <mergeCell ref="N124:O125"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="E116:J116"/>
+    <mergeCell ref="E117:J117"/>
     <mergeCell ref="A141:O143"/>
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="D104:D105"/>
@@ -53770,46 +53810,6 @@
     <mergeCell ref="A133:O134"/>
     <mergeCell ref="A135:O136"/>
     <mergeCell ref="A137:O140"/>
-    <mergeCell ref="N120:O121"/>
-    <mergeCell ref="N122:O123"/>
-    <mergeCell ref="N124:O125"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="E116:J116"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="C29:N53"/>
-    <mergeCell ref="J57:N58"/>
-    <mergeCell ref="J59:N60"/>
-    <mergeCell ref="J61:N62"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="J75:N76"/>
-    <mergeCell ref="J77:N78"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="J17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="E109:J109"/>
-    <mergeCell ref="E110:J110"/>
-    <mergeCell ref="E111:J111"/>
-    <mergeCell ref="E112:J112"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="J15:M16"/>
-    <mergeCell ref="E107:J107"/>
-    <mergeCell ref="J63:N64"/>
-    <mergeCell ref="J65:N66"/>
-    <mergeCell ref="J67:N68"/>
-    <mergeCell ref="J69:O70"/>
-    <mergeCell ref="J71:N72"/>
-    <mergeCell ref="J73:N74"/>
-    <mergeCell ref="J19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="E108:J108"/>
-    <mergeCell ref="E106:J106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J59" r:id="rId1" display="sales@gmcendustriyel.com" xr:uid="{4EAC34DF-F066-4A1A-92F6-25194520882D}"/>

--- a/src/main/resources/excel/gmc-offer-letter-temp.xlsx
+++ b/src/main/resources/excel/gmc-offer-letter-temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\MyGit\eclipse\omak-backend\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE7B62-0F80-492B-A2F5-486985822380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF38CF-76CB-44A6-9F7E-6373CE7F1A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Dilimleyici_Cari_Adı" localSheetId="1">#REF!</definedName>
     <definedName name="Dilimleyici_Cari_Adı">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Teklif!$A$1:$O$91,Teklif!$A$95:$O$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Teklif!$A$1:$O$91,Teklif!$A$95:$O$162</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5768" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5774" uniqueCount="916">
   <si>
     <t>a</t>
   </si>
@@ -2771,9 +2771,6 @@
   </si>
   <si>
     <t>05241943</t>
-  </si>
-  <si>
-    <t>Ürün Görseli</t>
   </si>
   <si>
     <t>No</t>
@@ -2860,37 +2857,61 @@
     </r>
   </si>
   <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>Contact Person</t>
-  </si>
-  <si>
-    <t>OfferDate</t>
-  </si>
-  <si>
-    <t>TenderNo</t>
-  </si>
-  <si>
-    <t>CustomerNo</t>
-  </si>
-  <si>
-    <t>Salesman</t>
-  </si>
-  <si>
-    <t>SalesmanEmail</t>
-  </si>
-  <si>
-    <t>SalesmanPhone Number</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>TotalAmount</t>
+    <t>#Amount</t>
+  </si>
+  <si>
+    <t>#Tax</t>
+  </si>
+  <si>
+    <t>#TotalAmount</t>
+  </si>
+  <si>
+    <t>#brand</t>
+  </si>
+  <si>
+    <t>#code</t>
+  </si>
+  <si>
+    <t>#description</t>
+  </si>
+  <si>
+    <t>#QTY</t>
+  </si>
+  <si>
+    <t>#currency</t>
+  </si>
+  <si>
+    <t>#UnitPrice</t>
+  </si>
+  <si>
+    <t>#TotalPrice</t>
+  </si>
+  <si>
+    <t>#Duration</t>
+  </si>
+  <si>
+    <t>#Salesman</t>
+  </si>
+  <si>
+    <t>#SalesmanEmail</t>
+  </si>
+  <si>
+    <t>#SalesmanPhone Number</t>
+  </si>
+  <si>
+    <t>#CompanyName</t>
+  </si>
+  <si>
+    <t>#Contact Person</t>
+  </si>
+  <si>
+    <t>#OfferDate</t>
+  </si>
+  <si>
+    <t>#TenderNo</t>
+  </si>
+  <si>
+    <t>#CustomerNo</t>
   </si>
 </sst>
 </file>
@@ -2903,7 +2924,7 @@
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00;\-[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3024,14 +3045,6 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3141,16 +3154,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3161,13 +3170,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3253,41 +3262,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3301,23 +3289,41 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="13"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3950,9 +3956,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="964623" cy="342786"/>
     <xdr:sp macro="" textlink="">
@@ -3968,7 +3974,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9611590" y="16954500"/>
+          <a:off x="14893635" y="29354318"/>
           <a:ext cx="964623" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3998,8 +4004,21 @@
         <a:p>
           <a:r>
             <a:rPr lang="tr-TR" sz="1600"/>
-            <a:t>Sayfa 1/1</a:t>
+            <a:t>Sayfa </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1600"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4054,6 +4073,77 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="964623" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Metin kutusu 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DB6001-49A5-468D-B329-4968A0136750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14858999" y="15188046"/>
+          <a:ext cx="964623" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1600"/>
+            <a:t>Sayfa </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1600"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -46878,10 +46968,10 @@
   <sheetPr codeName="Sayfa11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM420"/>
+  <dimension ref="A1:AM438"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77:N78"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A80" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108:J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46989,95 +47079,95 @@
       </c>
     </row>
     <row r="15" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>898</v>
-      </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="J15" s="53" t="s">
+      <c r="D15" s="36" t="s">
+        <v>911</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="J15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="50" t="s">
-        <v>900</v>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="42" t="s">
+        <v>913</v>
       </c>
       <c r="Q15" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="51"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
       <c r="Q16" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="51" t="s">
-        <v>899</v>
-      </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="J17" s="53" t="s">
+      <c r="D17" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="J17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="54" t="s">
-        <v>901</v>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="44" t="s">
+        <v>914</v>
       </c>
       <c r="Q17" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="54"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="44"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="51" t="s">
-        <v>902</v>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36" t="s">
+        <v>915</v>
       </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="23" t="s">
@@ -47085,11 +47175,11 @@
       </c>
     </row>
     <row r="20" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="51"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="23" t="s">
         <v>0</v>
@@ -47179,92 +47269,92 @@
       </c>
     </row>
     <row r="29" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="23" t="s">
         <v>0</v>
@@ -47275,18 +47365,18 @@
       <c r="AM33" s="17"/>
     </row>
     <row r="34" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="23" t="s">
         <v>0</v>
@@ -47297,18 +47387,18 @@
       <c r="AM34" s="17"/>
     </row>
     <row r="35" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="23" t="s">
         <v>0</v>
@@ -47319,18 +47409,18 @@
       <c r="AM35" s="17"/>
     </row>
     <row r="36" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="23" t="s">
         <v>0</v>
@@ -47341,18 +47431,18 @@
       <c r="AM36" s="17"/>
     </row>
     <row r="37" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="23" t="s">
         <v>0</v>
@@ -47363,18 +47453,18 @@
       <c r="AM37" s="17"/>
     </row>
     <row r="38" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="23" t="s">
         <v>0</v>
@@ -47385,18 +47475,18 @@
       <c r="AM38" s="18"/>
     </row>
     <row r="39" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="23" t="s">
         <v>0</v>
@@ -47407,18 +47497,18 @@
       <c r="AM39" s="20"/>
     </row>
     <row r="40" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="23" t="s">
         <v>0</v>
@@ -47429,234 +47519,234 @@
       <c r="AM40" s="18"/>
     </row>
     <row r="41" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="23" t="s">
         <v>0</v>
@@ -47681,258 +47771,258 @@
       </c>
     </row>
     <row r="57" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J57" s="46" t="s">
-        <v>903</v>
-      </c>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
+      <c r="J57" s="39" t="s">
+        <v>908</v>
+      </c>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J59" s="47" t="s">
-        <v>904</v>
-      </c>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
+      <c r="J59" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J61" s="48" t="s">
-        <v>905</v>
-      </c>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
+      <c r="J61" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J63" s="46" t="s">
+      <c r="J63" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J65" s="46" t="s">
+      <c r="J65" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J67" s="47" t="s">
+      <c r="J67" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J69" s="46" t="s">
+      <c r="J69" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="45"/>
       <c r="P71" s="15"/>
       <c r="Q71" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="45"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="45"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J77" s="49"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
       <c r="P77" s="15"/>
       <c r="Q77" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="10:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
       <c r="P78" s="15"/>
       <c r="Q78" s="23" t="s">
         <v>0</v>
@@ -48076,9 +48166,7 @@
       </c>
     </row>
     <row r="102" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q102" s="23" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q102" s="23"/>
     </row>
     <row r="103" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q103" s="23" t="s">
@@ -48086,39 +48174,37 @@
       </c>
     </row>
     <row r="104" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="37" t="s">
+        <v>891</v>
+      </c>
+      <c r="B104" s="37" t="s">
         <v>892</v>
       </c>
-      <c r="B104" s="37" t="s">
-        <v>891</v>
-      </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D104" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="E104" s="38" t="s">
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="L104" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M104" s="37" t="s">
+        <v>895</v>
+      </c>
+      <c r="N104" s="37" t="s">
         <v>894</v>
       </c>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="L104" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="M104" s="38" t="s">
-        <v>896</v>
-      </c>
-      <c r="N104" s="38" t="s">
-        <v>895</v>
-      </c>
-      <c r="O104" s="38" t="s">
+      <c r="O104" s="37" t="s">
         <v>61</v>
       </c>
       <c r="Q104" s="23" t="s">
@@ -48126,989 +48212,1023 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
+      <c r="A105" s="37"/>
       <c r="B105" s="37"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="38"/>
-      <c r="N105" s="38"/>
-      <c r="O105" s="38"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
       <c r="Q105" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32">
+    <row r="106" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="34">
         <v>1</v>
       </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="33"/>
-      <c r="L106" s="33"/>
-      <c r="M106" s="34"/>
-      <c r="N106" s="34"/>
-      <c r="O106" s="33"/>
-    </row>
-    <row r="107" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="32">
+      <c r="B106" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>900</v>
+      </c>
+      <c r="D106" s="48" t="s">
+        <v>902</v>
+      </c>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="48"/>
+      <c r="K106" s="32" t="s">
+        <v>903</v>
+      </c>
+      <c r="L106" s="32" t="s">
+        <v>904</v>
+      </c>
+      <c r="M106" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="N106" s="33" t="s">
+        <v>906</v>
+      </c>
+      <c r="O106" s="32" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="34">
         <v>2</v>
       </c>
       <c r="B107" s="32"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="40"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="33"/>
-      <c r="L107" s="33"/>
-      <c r="M107" s="34"/>
-      <c r="N107" s="34"/>
-      <c r="O107" s="33"/>
-    </row>
-    <row r="108" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32">
+      <c r="C107" s="32"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="48"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="33"/>
+      <c r="O107" s="32"/>
+    </row>
+    <row r="108" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="34">
         <v>3</v>
       </c>
       <c r="B108" s="32"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="40"/>
-      <c r="F108" s="40"/>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="34"/>
-      <c r="N108" s="34"/>
-      <c r="O108" s="33"/>
-    </row>
-    <row r="109" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="32">
+      <c r="C108" s="32"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="32"/>
+    </row>
+    <row r="109" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="34">
         <v>4</v>
       </c>
       <c r="B109" s="32"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="40"/>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
-      <c r="M109" s="34"/>
-      <c r="N109" s="34"/>
-      <c r="O109" s="33"/>
-    </row>
-    <row r="110" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32">
+      <c r="C109" s="32"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="33"/>
+      <c r="O109" s="32"/>
+    </row>
+    <row r="110" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="34">
         <v>5</v>
       </c>
       <c r="B110" s="32"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="40"/>
-      <c r="K110" s="33"/>
-      <c r="L110" s="33"/>
-      <c r="M110" s="34"/>
-      <c r="N110" s="34"/>
-      <c r="O110" s="33"/>
-    </row>
-    <row r="111" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="32">
+      <c r="C110" s="32"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="33"/>
+      <c r="N110" s="33"/>
+      <c r="O110" s="32"/>
+    </row>
+    <row r="111" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="34">
         <v>6</v>
       </c>
       <c r="B111" s="32"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-      <c r="K111" s="33"/>
-      <c r="L111" s="33"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="34"/>
-      <c r="O111" s="33"/>
-    </row>
-    <row r="112" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32">
+      <c r="C111" s="32"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="48"/>
+      <c r="J111" s="48"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="32"/>
+    </row>
+    <row r="112" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="34">
         <v>7</v>
       </c>
       <c r="B112" s="32"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="40"/>
-      <c r="F112" s="40"/>
-      <c r="G112" s="40"/>
-      <c r="H112" s="40"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="40"/>
-      <c r="K112" s="33"/>
-      <c r="L112" s="33"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="34"/>
-      <c r="O112" s="33"/>
-    </row>
-    <row r="113" spans="1:16" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="32">
+      <c r="C112" s="32"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="48"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="33"/>
+      <c r="O112" s="32"/>
+    </row>
+    <row r="113" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="34">
         <v>8</v>
       </c>
       <c r="B113" s="32"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="40"/>
-      <c r="F113" s="40"/>
-      <c r="G113" s="40"/>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="40"/>
-      <c r="K113" s="33"/>
-      <c r="L113" s="33"/>
-      <c r="M113" s="34"/>
-      <c r="N113" s="34"/>
-      <c r="O113" s="33"/>
-    </row>
-    <row r="114" spans="1:16" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="32">
+      <c r="C113" s="32"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48"/>
+      <c r="J113" s="48"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="33"/>
+      <c r="N113" s="33"/>
+      <c r="O113" s="32"/>
+    </row>
+    <row r="114" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="34">
         <v>9</v>
       </c>
       <c r="B114" s="32"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="40"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="33"/>
-      <c r="L114" s="33"/>
-      <c r="M114" s="34"/>
-      <c r="N114" s="34"/>
-      <c r="O114" s="33"/>
-    </row>
-    <row r="115" spans="1:16" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="32">
+      <c r="C114" s="32"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="48"/>
+      <c r="J114" s="48"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="33"/>
+      <c r="O114" s="32"/>
+    </row>
+    <row r="115" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="34">
         <v>10</v>
       </c>
       <c r="B115" s="32"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="40"/>
-      <c r="F115" s="40"/>
-      <c r="G115" s="40"/>
-      <c r="H115" s="40"/>
-      <c r="I115" s="40"/>
-      <c r="J115" s="40"/>
-      <c r="K115" s="33"/>
-      <c r="L115" s="33"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="34"/>
-      <c r="O115" s="33"/>
-    </row>
-    <row r="116" spans="1:16" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="32">
+      <c r="C115" s="32"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="48"/>
+      <c r="J115" s="48"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="33"/>
+      <c r="O115" s="32"/>
+    </row>
+    <row r="116" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="34">
         <v>11</v>
       </c>
       <c r="B116" s="32"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="40"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="34"/>
-      <c r="N116" s="34"/>
-      <c r="O116" s="33"/>
-    </row>
-    <row r="117" spans="1:16" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="32">
+      <c r="C116" s="32"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="48"/>
+      <c r="J116" s="48"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="33"/>
+      <c r="O116" s="32"/>
+    </row>
+    <row r="117" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="34">
         <v>12</v>
       </c>
       <c r="B117" s="32"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="40"/>
-      <c r="G117" s="40"/>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="40"/>
-      <c r="K117" s="33"/>
-      <c r="L117" s="33"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="34"/>
-      <c r="O117" s="33"/>
-    </row>
-    <row r="118" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P118" s="15"/>
-    </row>
-    <row r="119" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="21"/>
-      <c r="P119" s="15"/>
-    </row>
-    <row r="120" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="39" t="s">
+      <c r="C117" s="32"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="48"/>
+      <c r="J117" s="48"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="33"/>
+      <c r="O117" s="32"/>
+    </row>
+    <row r="118" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="34">
+        <v>13</v>
+      </c>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="48"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="33"/>
+      <c r="O118" s="32"/>
+    </row>
+    <row r="119" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="34">
+        <v>14</v>
+      </c>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="33"/>
+      <c r="O119" s="32"/>
+    </row>
+    <row r="120" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="34">
+        <v>15</v>
+      </c>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="48"/>
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="33"/>
+      <c r="O120" s="32"/>
+    </row>
+    <row r="121" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="34">
+        <v>16</v>
+      </c>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="33"/>
+      <c r="O121" s="32"/>
+    </row>
+    <row r="122" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="34">
+        <v>17</v>
+      </c>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="33"/>
+      <c r="O122" s="32"/>
+    </row>
+    <row r="123" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="34">
+        <v>18</v>
+      </c>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33"/>
+      <c r="O123" s="32"/>
+    </row>
+    <row r="124" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="34">
+        <v>19</v>
+      </c>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="32"/>
+    </row>
+    <row r="125" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="34">
+        <v>20</v>
+      </c>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="33"/>
+      <c r="O125" s="32"/>
+    </row>
+    <row r="126" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="34">
+        <v>21</v>
+      </c>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="33"/>
+      <c r="N126" s="33"/>
+      <c r="O126" s="32"/>
+    </row>
+    <row r="127" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="34">
+        <v>22</v>
+      </c>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="48"/>
+      <c r="J127" s="48"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
+      <c r="M127" s="33"/>
+      <c r="N127" s="33"/>
+      <c r="O127" s="32"/>
+    </row>
+    <row r="128" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="34">
+        <v>23</v>
+      </c>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="48"/>
+      <c r="J128" s="48"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="33"/>
+      <c r="O128" s="32"/>
+    </row>
+    <row r="129" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="34">
+        <v>24</v>
+      </c>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="48"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="48"/>
+      <c r="J129" s="48"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="33"/>
+      <c r="O129" s="32"/>
+    </row>
+    <row r="130" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="34">
+        <v>25</v>
+      </c>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="48"/>
+      <c r="J130" s="48"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="33"/>
+      <c r="N130" s="33"/>
+      <c r="O130" s="32"/>
+    </row>
+    <row r="131" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="34">
+        <v>26</v>
+      </c>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48"/>
+      <c r="J131" s="48"/>
+      <c r="K131" s="32"/>
+      <c r="L131" s="32"/>
+      <c r="M131" s="33"/>
+      <c r="N131" s="33"/>
+      <c r="O131" s="32"/>
+    </row>
+    <row r="132" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="34">
+        <v>27</v>
+      </c>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="48"/>
+      <c r="J132" s="48"/>
+      <c r="K132" s="32"/>
+      <c r="L132" s="32"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="33"/>
+      <c r="O132" s="32"/>
+    </row>
+    <row r="133" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="34">
+        <v>28</v>
+      </c>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="48"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="48"/>
+      <c r="I133" s="48"/>
+      <c r="J133" s="48"/>
+      <c r="K133" s="32"/>
+      <c r="L133" s="32"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="33"/>
+      <c r="O133" s="32"/>
+    </row>
+    <row r="134" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="34">
+        <v>29</v>
+      </c>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="48"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="48"/>
+      <c r="I134" s="48"/>
+      <c r="J134" s="48"/>
+      <c r="K134" s="32"/>
+      <c r="L134" s="32"/>
+      <c r="M134" s="33"/>
+      <c r="N134" s="33"/>
+      <c r="O134" s="32"/>
+    </row>
+    <row r="135" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="34">
+        <v>30</v>
+      </c>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="48"/>
+      <c r="J135" s="48"/>
+      <c r="K135" s="32"/>
+      <c r="L135" s="32"/>
+      <c r="M135" s="33"/>
+      <c r="N135" s="33"/>
+      <c r="O135" s="32"/>
+    </row>
+    <row r="136" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P136" s="15"/>
+    </row>
+    <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="21"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21"/>
+      <c r="O137" s="21"/>
+      <c r="P137" s="15"/>
+    </row>
+    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="N120" s="44" t="s">
-        <v>906</v>
-      </c>
-      <c r="O120" s="44"/>
-      <c r="P120" s="15"/>
-    </row>
-    <row r="121" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
-      <c r="N121" s="44"/>
-      <c r="O121" s="44"/>
-      <c r="P121" s="15"/>
-    </row>
-    <row r="122" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="39" t="s">
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
+      <c r="N138" s="47" t="s">
+        <v>897</v>
+      </c>
+      <c r="O138" s="47"/>
+      <c r="P138" s="15"/>
+    </row>
+    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="46"/>
+      <c r="B139" s="46"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="46"/>
+      <c r="N139" s="47"/>
+      <c r="O139" s="47"/>
+      <c r="P139" s="15"/>
+    </row>
+    <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="N122" s="44" t="s">
-        <v>907</v>
-      </c>
-      <c r="O122" s="44"/>
-      <c r="P122" s="15"/>
-    </row>
-    <row r="123" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="N123" s="44"/>
-      <c r="O123" s="44"/>
-      <c r="P123" s="15"/>
-    </row>
-    <row r="124" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="N140" s="47" t="s">
+        <v>898</v>
+      </c>
+      <c r="O140" s="47"/>
+      <c r="P140" s="15"/>
+    </row>
+    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="46"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="N141" s="47"/>
+      <c r="O141" s="47"/>
+      <c r="P141" s="15"/>
+    </row>
+    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="N124" s="44" t="s">
-        <v>908</v>
-      </c>
-      <c r="O124" s="44"/>
-      <c r="P124" s="15"/>
-    </row>
-    <row r="125" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="N125" s="44"/>
-      <c r="O125" s="44"/>
-      <c r="P125" s="15"/>
-    </row>
-    <row r="126" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="22"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="22"/>
-      <c r="L126" s="22"/>
-      <c r="M126" s="22"/>
-      <c r="N126" s="22"/>
-      <c r="O126" s="22"/>
-      <c r="P126" s="15"/>
-    </row>
-    <row r="127" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P127" s="15"/>
-    </row>
-    <row r="128" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="41" t="s">
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="N142" s="47" t="s">
+        <v>899</v>
+      </c>
+      <c r="O142" s="47"/>
+      <c r="P142" s="15"/>
+    </row>
+    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="46"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+      <c r="N143" s="47"/>
+      <c r="O143" s="47"/>
+      <c r="P143" s="15"/>
+    </row>
+    <row r="144" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
+      <c r="J144" s="22"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="22"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="22"/>
+      <c r="P144" s="15"/>
+    </row>
+    <row r="145" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P145" s="15"/>
+    </row>
+    <row r="146" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-      <c r="K128" s="41"/>
-      <c r="L128" s="41"/>
-      <c r="M128" s="41"/>
-      <c r="N128" s="41"/>
-      <c r="O128" s="41"/>
-      <c r="P128" s="15"/>
-    </row>
-    <row r="129" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-      <c r="K129" s="41"/>
-      <c r="L129" s="41"/>
-      <c r="M129" s="41"/>
-      <c r="N129" s="41"/>
-      <c r="O129" s="41"/>
-      <c r="P129" s="15"/>
-    </row>
-    <row r="130" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="41"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-      <c r="K130" s="41"/>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="41"/>
-      <c r="O130" s="41"/>
-      <c r="P130" s="15"/>
-    </row>
-    <row r="131" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="42" t="s">
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
+      <c r="F146" s="51"/>
+      <c r="G146" s="51"/>
+      <c r="H146" s="51"/>
+      <c r="I146" s="51"/>
+      <c r="J146" s="51"/>
+      <c r="K146" s="51"/>
+      <c r="L146" s="51"/>
+      <c r="M146" s="51"/>
+      <c r="N146" s="51"/>
+      <c r="O146" s="51"/>
+      <c r="P146" s="15"/>
+    </row>
+    <row r="147" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
+      <c r="F147" s="51"/>
+      <c r="G147" s="51"/>
+      <c r="H147" s="51"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="51"/>
+      <c r="K147" s="51"/>
+      <c r="L147" s="51"/>
+      <c r="M147" s="51"/>
+      <c r="N147" s="51"/>
+      <c r="O147" s="51"/>
+      <c r="P147" s="15"/>
+    </row>
+    <row r="148" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="51"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="51"/>
+      <c r="I148" s="51"/>
+      <c r="J148" s="51"/>
+      <c r="K148" s="51"/>
+      <c r="L148" s="51"/>
+      <c r="M148" s="51"/>
+      <c r="N148" s="51"/>
+      <c r="O148" s="51"/>
+      <c r="P148" s="15"/>
+    </row>
+    <row r="149" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B131" s="42"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="42"/>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="42"/>
-      <c r="K131" s="42"/>
-      <c r="L131" s="42"/>
-      <c r="M131" s="42"/>
-      <c r="N131" s="42"/>
-      <c r="O131" s="42"/>
-      <c r="P131" s="15"/>
-    </row>
-    <row r="132" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="42"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="42"/>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
-      <c r="K132" s="42"/>
-      <c r="L132" s="42"/>
-      <c r="M132" s="42"/>
-      <c r="N132" s="42"/>
-      <c r="O132" s="42"/>
-      <c r="P132" s="15"/>
-    </row>
-    <row r="133" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="42" t="s">
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="52"/>
+      <c r="H149" s="52"/>
+      <c r="I149" s="52"/>
+      <c r="J149" s="52"/>
+      <c r="K149" s="52"/>
+      <c r="L149" s="52"/>
+      <c r="M149" s="52"/>
+      <c r="N149" s="52"/>
+      <c r="O149" s="52"/>
+      <c r="P149" s="15"/>
+    </row>
+    <row r="150" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="52"/>
+      <c r="B150" s="52"/>
+      <c r="C150" s="52"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="52"/>
+      <c r="H150" s="52"/>
+      <c r="I150" s="52"/>
+      <c r="J150" s="52"/>
+      <c r="K150" s="52"/>
+      <c r="L150" s="52"/>
+      <c r="M150" s="52"/>
+      <c r="N150" s="52"/>
+      <c r="O150" s="52"/>
+      <c r="P150" s="15"/>
+    </row>
+    <row r="151" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="42"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="42"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="42"/>
-      <c r="L133" s="42"/>
-      <c r="M133" s="42"/>
-      <c r="N133" s="42"/>
-      <c r="O133" s="42"/>
-      <c r="P133" s="15"/>
-    </row>
-    <row r="134" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="42"/>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42"/>
-      <c r="J134" s="42"/>
-      <c r="K134" s="42"/>
-      <c r="L134" s="42"/>
-      <c r="M134" s="42"/>
-      <c r="N134" s="42"/>
-      <c r="O134" s="42"/>
-      <c r="P134" s="15"/>
-    </row>
-    <row r="135" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="42" t="s">
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="52"/>
+      <c r="H151" s="52"/>
+      <c r="I151" s="52"/>
+      <c r="J151" s="52"/>
+      <c r="K151" s="52"/>
+      <c r="L151" s="52"/>
+      <c r="M151" s="52"/>
+      <c r="N151" s="52"/>
+      <c r="O151" s="52"/>
+      <c r="P151" s="15"/>
+    </row>
+    <row r="152" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="52"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="52"/>
+      <c r="E152" s="52"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="52"/>
+      <c r="H152" s="52"/>
+      <c r="I152" s="52"/>
+      <c r="J152" s="52"/>
+      <c r="K152" s="52"/>
+      <c r="L152" s="52"/>
+      <c r="M152" s="52"/>
+      <c r="N152" s="52"/>
+      <c r="O152" s="52"/>
+      <c r="P152" s="15"/>
+    </row>
+    <row r="153" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="B135" s="42"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="42"/>
-      <c r="F135" s="42"/>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42"/>
-      <c r="J135" s="42"/>
-      <c r="K135" s="42"/>
-      <c r="L135" s="42"/>
-      <c r="M135" s="42"/>
-      <c r="N135" s="42"/>
-      <c r="O135" s="42"/>
-      <c r="P135" s="15"/>
-    </row>
-    <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
-      <c r="J136" s="42"/>
-      <c r="K136" s="42"/>
-      <c r="L136" s="42"/>
-      <c r="M136" s="42"/>
-      <c r="N136" s="42"/>
-      <c r="O136" s="42"/>
-      <c r="P136" s="15"/>
-    </row>
-    <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="43" t="s">
-        <v>897</v>
-      </c>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="43"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="43"/>
-      <c r="I137" s="43"/>
-      <c r="J137" s="43"/>
-      <c r="K137" s="43"/>
-      <c r="L137" s="43"/>
-      <c r="M137" s="43"/>
-      <c r="N137" s="43"/>
-      <c r="O137" s="43"/>
-      <c r="P137" s="15"/>
-    </row>
-    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="43"/>
-      <c r="F138" s="43"/>
-      <c r="G138" s="43"/>
-      <c r="H138" s="43"/>
-      <c r="I138" s="43"/>
-      <c r="J138" s="43"/>
-      <c r="K138" s="43"/>
-      <c r="L138" s="43"/>
-      <c r="M138" s="43"/>
-      <c r="N138" s="43"/>
-      <c r="O138" s="43"/>
-      <c r="P138" s="15"/>
-    </row>
-    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="43"/>
-      <c r="E139" s="43"/>
-      <c r="F139" s="43"/>
-      <c r="G139" s="43"/>
-      <c r="H139" s="43"/>
-      <c r="I139" s="43"/>
-      <c r="J139" s="43"/>
-      <c r="K139" s="43"/>
-      <c r="L139" s="43"/>
-      <c r="M139" s="43"/>
-      <c r="N139" s="43"/>
-      <c r="O139" s="43"/>
-      <c r="P139" s="15"/>
-    </row>
-    <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="43"/>
-      <c r="B140" s="43"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="43"/>
-      <c r="E140" s="43"/>
-      <c r="F140" s="43"/>
-      <c r="G140" s="43"/>
-      <c r="H140" s="43"/>
-      <c r="I140" s="43"/>
-      <c r="J140" s="43"/>
-      <c r="K140" s="43"/>
-      <c r="L140" s="43"/>
-      <c r="M140" s="43"/>
-      <c r="N140" s="43"/>
-      <c r="O140" s="43"/>
-      <c r="P140" s="15"/>
-    </row>
-    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="35" t="s">
+      <c r="B153" s="52"/>
+      <c r="C153" s="52"/>
+      <c r="D153" s="52"/>
+      <c r="E153" s="52"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="52"/>
+      <c r="H153" s="52"/>
+      <c r="I153" s="52"/>
+      <c r="J153" s="52"/>
+      <c r="K153" s="52"/>
+      <c r="L153" s="52"/>
+      <c r="M153" s="52"/>
+      <c r="N153" s="52"/>
+      <c r="O153" s="52"/>
+      <c r="P153" s="15"/>
+    </row>
+    <row r="154" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="52"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="52"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="52"/>
+      <c r="H154" s="52"/>
+      <c r="I154" s="52"/>
+      <c r="J154" s="52"/>
+      <c r="K154" s="52"/>
+      <c r="L154" s="52"/>
+      <c r="M154" s="52"/>
+      <c r="N154" s="52"/>
+      <c r="O154" s="52"/>
+      <c r="P154" s="15"/>
+    </row>
+    <row r="155" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="53" t="s">
+        <v>896</v>
+      </c>
+      <c r="B155" s="53"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="53"/>
+      <c r="E155" s="53"/>
+      <c r="F155" s="53"/>
+      <c r="G155" s="53"/>
+      <c r="H155" s="53"/>
+      <c r="I155" s="53"/>
+      <c r="J155" s="53"/>
+      <c r="K155" s="53"/>
+      <c r="L155" s="53"/>
+      <c r="M155" s="53"/>
+      <c r="N155" s="53"/>
+      <c r="O155" s="53"/>
+      <c r="P155" s="15"/>
+    </row>
+    <row r="156" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="53"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="53"/>
+      <c r="E156" s="53"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="53"/>
+      <c r="H156" s="53"/>
+      <c r="I156" s="53"/>
+      <c r="J156" s="53"/>
+      <c r="K156" s="53"/>
+      <c r="L156" s="53"/>
+      <c r="M156" s="53"/>
+      <c r="N156" s="53"/>
+      <c r="O156" s="53"/>
+      <c r="P156" s="15"/>
+    </row>
+    <row r="157" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="53"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53"/>
+      <c r="H157" s="53"/>
+      <c r="I157" s="53"/>
+      <c r="J157" s="53"/>
+      <c r="K157" s="53"/>
+      <c r="L157" s="53"/>
+      <c r="M157" s="53"/>
+      <c r="N157" s="53"/>
+      <c r="O157" s="53"/>
+      <c r="P157" s="15"/>
+    </row>
+    <row r="158" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="53"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="53"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="53"/>
+      <c r="H158" s="53"/>
+      <c r="I158" s="53"/>
+      <c r="J158" s="53"/>
+      <c r="K158" s="53"/>
+      <c r="L158" s="53"/>
+      <c r="M158" s="53"/>
+      <c r="N158" s="53"/>
+      <c r="O158" s="53"/>
+      <c r="P158" s="15"/>
+    </row>
+    <row r="159" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B141" s="35"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
-      <c r="L141" s="36"/>
-      <c r="M141" s="36"/>
-      <c r="N141" s="36"/>
-      <c r="O141" s="36"/>
-      <c r="P141" s="15"/>
-    </row>
-    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
-      <c r="L142" s="36"/>
-      <c r="M142" s="36"/>
-      <c r="N142" s="36"/>
-      <c r="O142" s="36"/>
-      <c r="P142" s="15"/>
-    </row>
-    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="36"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="36"/>
-      <c r="L143" s="36"/>
-      <c r="M143" s="36"/>
-      <c r="N143" s="36"/>
-      <c r="O143" s="36"/>
-      <c r="P143" s="15"/>
-    </row>
-    <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P144" s="15"/>
-    </row>
-    <row r="145" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
-      <c r="O145" s="15"/>
-      <c r="P145" s="15"/>
-    </row>
-    <row r="146" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
-      <c r="O146" s="15"/>
-      <c r="P146" s="15"/>
-    </row>
-    <row r="147" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15"/>
-      <c r="N147" s="15"/>
-      <c r="O147" s="15"/>
-      <c r="P147" s="15"/>
-    </row>
-    <row r="148" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="15"/>
-      <c r="O148" s="15"/>
-      <c r="P148" s="15"/>
-    </row>
-    <row r="149" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
-      <c r="M149" s="15"/>
-      <c r="N149" s="15"/>
-      <c r="O149" s="15"/>
-      <c r="P149" s="15"/>
-    </row>
-    <row r="150" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
-      <c r="O150" s="15"/>
-      <c r="P150" s="15"/>
-    </row>
-    <row r="151" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15"/>
-      <c r="N151" s="15"/>
-      <c r="O151" s="15"/>
-      <c r="P151" s="15"/>
-    </row>
-    <row r="152" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="15"/>
-      <c r="O152" s="15"/>
-      <c r="P152" s="15"/>
-    </row>
-    <row r="153" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15"/>
-      <c r="N153" s="15"/>
-      <c r="O153" s="15"/>
-      <c r="P153" s="15"/>
-    </row>
-    <row r="154" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
-      <c r="M154" s="15"/>
-      <c r="N154" s="15"/>
-      <c r="O154" s="15"/>
-      <c r="P154" s="15"/>
-    </row>
-    <row r="155" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="15"/>
-      <c r="M155" s="15"/>
-      <c r="N155" s="15"/>
-      <c r="O155" s="15"/>
-      <c r="P155" s="15"/>
-    </row>
-    <row r="156" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
-      <c r="N156" s="15"/>
-      <c r="O156" s="15"/>
-      <c r="P156" s="15"/>
-    </row>
-    <row r="157" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
-      <c r="M157" s="15"/>
-      <c r="N157" s="15"/>
-      <c r="O157" s="15"/>
-      <c r="P157" s="15"/>
-    </row>
-    <row r="158" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-      <c r="N158" s="15"/>
-      <c r="O158" s="15"/>
-      <c r="P158" s="15"/>
-    </row>
-    <row r="159" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
-      <c r="M159" s="15"/>
-      <c r="N159" s="15"/>
-      <c r="O159" s="15"/>
+      <c r="B159" s="49"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="50"/>
+      <c r="H159" s="50"/>
+      <c r="I159" s="50"/>
+      <c r="J159" s="50"/>
+      <c r="K159" s="50"/>
+      <c r="L159" s="50"/>
+      <c r="M159" s="50"/>
+      <c r="N159" s="50"/>
+      <c r="O159" s="50"/>
       <c r="P159" s="15"/>
     </row>
-    <row r="160" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-      <c r="N160" s="15"/>
-      <c r="O160" s="15"/>
+    <row r="160" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="50"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50"/>
+      <c r="G160" s="50"/>
+      <c r="H160" s="50"/>
+      <c r="I160" s="50"/>
+      <c r="J160" s="50"/>
+      <c r="K160" s="50"/>
+      <c r="L160" s="50"/>
+      <c r="M160" s="50"/>
+      <c r="N160" s="50"/>
+      <c r="O160" s="50"/>
       <c r="P160" s="15"/>
     </row>
-    <row r="161" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="15"/>
-      <c r="M161" s="15"/>
-      <c r="N161" s="15"/>
-      <c r="O161" s="15"/>
+    <row r="161" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="50"/>
+      <c r="B161" s="50"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="50"/>
+      <c r="G161" s="50"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="50"/>
+      <c r="J161" s="50"/>
+      <c r="K161" s="50"/>
+      <c r="L161" s="50"/>
+      <c r="M161" s="50"/>
+      <c r="N161" s="50"/>
+      <c r="O161" s="50"/>
       <c r="P161" s="15"/>
     </row>
-    <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="15"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
-      <c r="N162" s="15"/>
-      <c r="O162" s="15"/>
+    <row r="162" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P162" s="15"/>
     </row>
-    <row r="163" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -49126,7 +49246,7 @@
       <c r="O163" s="15"/>
       <c r="P163" s="15"/>
     </row>
-    <row r="164" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -49144,7 +49264,7 @@
       <c r="O164" s="15"/>
       <c r="P164" s="15"/>
     </row>
-    <row r="165" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -53752,64 +53872,405 @@
       <c r="O420" s="15"/>
       <c r="P420" s="15"/>
     </row>
+    <row r="421" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="15"/>
+      <c r="B421" s="15"/>
+      <c r="C421" s="15"/>
+      <c r="D421" s="18"/>
+      <c r="E421" s="15"/>
+      <c r="F421" s="15"/>
+      <c r="G421" s="15"/>
+      <c r="H421" s="15"/>
+      <c r="I421" s="15"/>
+      <c r="J421" s="15"/>
+      <c r="K421" s="15"/>
+      <c r="L421" s="15"/>
+      <c r="M421" s="15"/>
+      <c r="N421" s="15"/>
+      <c r="O421" s="15"/>
+      <c r="P421" s="15"/>
+    </row>
+    <row r="422" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="15"/>
+      <c r="B422" s="15"/>
+      <c r="C422" s="15"/>
+      <c r="D422" s="18"/>
+      <c r="E422" s="15"/>
+      <c r="F422" s="15"/>
+      <c r="G422" s="15"/>
+      <c r="H422" s="15"/>
+      <c r="I422" s="15"/>
+      <c r="J422" s="15"/>
+      <c r="K422" s="15"/>
+      <c r="L422" s="15"/>
+      <c r="M422" s="15"/>
+      <c r="N422" s="15"/>
+      <c r="O422" s="15"/>
+      <c r="P422" s="15"/>
+    </row>
+    <row r="423" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="15"/>
+      <c r="B423" s="15"/>
+      <c r="C423" s="15"/>
+      <c r="D423" s="18"/>
+      <c r="E423" s="15"/>
+      <c r="F423" s="15"/>
+      <c r="G423" s="15"/>
+      <c r="H423" s="15"/>
+      <c r="I423" s="15"/>
+      <c r="J423" s="15"/>
+      <c r="K423" s="15"/>
+      <c r="L423" s="15"/>
+      <c r="M423" s="15"/>
+      <c r="N423" s="15"/>
+      <c r="O423" s="15"/>
+      <c r="P423" s="15"/>
+    </row>
+    <row r="424" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="15"/>
+      <c r="B424" s="15"/>
+      <c r="C424" s="15"/>
+      <c r="D424" s="18"/>
+      <c r="E424" s="15"/>
+      <c r="F424" s="15"/>
+      <c r="G424" s="15"/>
+      <c r="H424" s="15"/>
+      <c r="I424" s="15"/>
+      <c r="J424" s="15"/>
+      <c r="K424" s="15"/>
+      <c r="L424" s="15"/>
+      <c r="M424" s="15"/>
+      <c r="N424" s="15"/>
+      <c r="O424" s="15"/>
+      <c r="P424" s="15"/>
+    </row>
+    <row r="425" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="15"/>
+      <c r="B425" s="15"/>
+      <c r="C425" s="15"/>
+      <c r="D425" s="18"/>
+      <c r="E425" s="15"/>
+      <c r="F425" s="15"/>
+      <c r="G425" s="15"/>
+      <c r="H425" s="15"/>
+      <c r="I425" s="15"/>
+      <c r="J425" s="15"/>
+      <c r="K425" s="15"/>
+      <c r="L425" s="15"/>
+      <c r="M425" s="15"/>
+      <c r="N425" s="15"/>
+      <c r="O425" s="15"/>
+      <c r="P425" s="15"/>
+    </row>
+    <row r="426" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="15"/>
+      <c r="B426" s="15"/>
+      <c r="C426" s="15"/>
+      <c r="D426" s="18"/>
+      <c r="E426" s="15"/>
+      <c r="F426" s="15"/>
+      <c r="G426" s="15"/>
+      <c r="H426" s="15"/>
+      <c r="I426" s="15"/>
+      <c r="J426" s="15"/>
+      <c r="K426" s="15"/>
+      <c r="L426" s="15"/>
+      <c r="M426" s="15"/>
+      <c r="N426" s="15"/>
+      <c r="O426" s="15"/>
+      <c r="P426" s="15"/>
+    </row>
+    <row r="427" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="15"/>
+      <c r="B427" s="15"/>
+      <c r="C427" s="15"/>
+      <c r="D427" s="18"/>
+      <c r="E427" s="15"/>
+      <c r="F427" s="15"/>
+      <c r="G427" s="15"/>
+      <c r="H427" s="15"/>
+      <c r="I427" s="15"/>
+      <c r="J427" s="15"/>
+      <c r="K427" s="15"/>
+      <c r="L427" s="15"/>
+      <c r="M427" s="15"/>
+      <c r="N427" s="15"/>
+      <c r="O427" s="15"/>
+      <c r="P427" s="15"/>
+    </row>
+    <row r="428" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="15"/>
+      <c r="B428" s="15"/>
+      <c r="C428" s="15"/>
+      <c r="D428" s="18"/>
+      <c r="E428" s="15"/>
+      <c r="F428" s="15"/>
+      <c r="G428" s="15"/>
+      <c r="H428" s="15"/>
+      <c r="I428" s="15"/>
+      <c r="J428" s="15"/>
+      <c r="K428" s="15"/>
+      <c r="L428" s="15"/>
+      <c r="M428" s="15"/>
+      <c r="N428" s="15"/>
+      <c r="O428" s="15"/>
+      <c r="P428" s="15"/>
+    </row>
+    <row r="429" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="15"/>
+      <c r="B429" s="15"/>
+      <c r="C429" s="15"/>
+      <c r="D429" s="18"/>
+      <c r="E429" s="15"/>
+      <c r="F429" s="15"/>
+      <c r="G429" s="15"/>
+      <c r="H429" s="15"/>
+      <c r="I429" s="15"/>
+      <c r="J429" s="15"/>
+      <c r="K429" s="15"/>
+      <c r="L429" s="15"/>
+      <c r="M429" s="15"/>
+      <c r="N429" s="15"/>
+      <c r="O429" s="15"/>
+      <c r="P429" s="15"/>
+    </row>
+    <row r="430" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="15"/>
+      <c r="B430" s="15"/>
+      <c r="C430" s="15"/>
+      <c r="D430" s="18"/>
+      <c r="E430" s="15"/>
+      <c r="F430" s="15"/>
+      <c r="G430" s="15"/>
+      <c r="H430" s="15"/>
+      <c r="I430" s="15"/>
+      <c r="J430" s="15"/>
+      <c r="K430" s="15"/>
+      <c r="L430" s="15"/>
+      <c r="M430" s="15"/>
+      <c r="N430" s="15"/>
+      <c r="O430" s="15"/>
+      <c r="P430" s="15"/>
+    </row>
+    <row r="431" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="15"/>
+      <c r="B431" s="15"/>
+      <c r="C431" s="15"/>
+      <c r="D431" s="18"/>
+      <c r="E431" s="15"/>
+      <c r="F431" s="15"/>
+      <c r="G431" s="15"/>
+      <c r="H431" s="15"/>
+      <c r="I431" s="15"/>
+      <c r="J431" s="15"/>
+      <c r="K431" s="15"/>
+      <c r="L431" s="15"/>
+      <c r="M431" s="15"/>
+      <c r="N431" s="15"/>
+      <c r="O431" s="15"/>
+      <c r="P431" s="15"/>
+    </row>
+    <row r="432" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="15"/>
+      <c r="B432" s="15"/>
+      <c r="C432" s="15"/>
+      <c r="D432" s="18"/>
+      <c r="E432" s="15"/>
+      <c r="F432" s="15"/>
+      <c r="G432" s="15"/>
+      <c r="H432" s="15"/>
+      <c r="I432" s="15"/>
+      <c r="J432" s="15"/>
+      <c r="K432" s="15"/>
+      <c r="L432" s="15"/>
+      <c r="M432" s="15"/>
+      <c r="N432" s="15"/>
+      <c r="O432" s="15"/>
+      <c r="P432" s="15"/>
+    </row>
+    <row r="433" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="15"/>
+      <c r="B433" s="15"/>
+      <c r="C433" s="15"/>
+      <c r="D433" s="18"/>
+      <c r="E433" s="15"/>
+      <c r="F433" s="15"/>
+      <c r="G433" s="15"/>
+      <c r="H433" s="15"/>
+      <c r="I433" s="15"/>
+      <c r="J433" s="15"/>
+      <c r="K433" s="15"/>
+      <c r="L433" s="15"/>
+      <c r="M433" s="15"/>
+      <c r="N433" s="15"/>
+      <c r="O433" s="15"/>
+      <c r="P433" s="15"/>
+    </row>
+    <row r="434" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="15"/>
+      <c r="B434" s="15"/>
+      <c r="C434" s="15"/>
+      <c r="D434" s="18"/>
+      <c r="E434" s="15"/>
+      <c r="F434" s="15"/>
+      <c r="G434" s="15"/>
+      <c r="H434" s="15"/>
+      <c r="I434" s="15"/>
+      <c r="J434" s="15"/>
+      <c r="K434" s="15"/>
+      <c r="L434" s="15"/>
+      <c r="M434" s="15"/>
+      <c r="N434" s="15"/>
+      <c r="O434" s="15"/>
+      <c r="P434" s="15"/>
+    </row>
+    <row r="435" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="15"/>
+      <c r="B435" s="15"/>
+      <c r="C435" s="15"/>
+      <c r="D435" s="18"/>
+      <c r="E435" s="15"/>
+      <c r="F435" s="15"/>
+      <c r="G435" s="15"/>
+      <c r="H435" s="15"/>
+      <c r="I435" s="15"/>
+      <c r="J435" s="15"/>
+      <c r="K435" s="15"/>
+      <c r="L435" s="15"/>
+      <c r="M435" s="15"/>
+      <c r="N435" s="15"/>
+      <c r="O435" s="15"/>
+      <c r="P435" s="15"/>
+    </row>
+    <row r="436" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="15"/>
+      <c r="B436" s="15"/>
+      <c r="C436" s="15"/>
+      <c r="D436" s="18"/>
+      <c r="E436" s="15"/>
+      <c r="F436" s="15"/>
+      <c r="G436" s="15"/>
+      <c r="H436" s="15"/>
+      <c r="I436" s="15"/>
+      <c r="J436" s="15"/>
+      <c r="K436" s="15"/>
+      <c r="L436" s="15"/>
+      <c r="M436" s="15"/>
+      <c r="N436" s="15"/>
+      <c r="O436" s="15"/>
+      <c r="P436" s="15"/>
+    </row>
+    <row r="437" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="15"/>
+      <c r="B437" s="15"/>
+      <c r="C437" s="15"/>
+      <c r="D437" s="18"/>
+      <c r="E437" s="15"/>
+      <c r="F437" s="15"/>
+      <c r="G437" s="15"/>
+      <c r="H437" s="15"/>
+      <c r="I437" s="15"/>
+      <c r="J437" s="15"/>
+      <c r="K437" s="15"/>
+      <c r="L437" s="15"/>
+      <c r="M437" s="15"/>
+      <c r="N437" s="15"/>
+      <c r="O437" s="15"/>
+      <c r="P437" s="15"/>
+    </row>
+    <row r="438" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="15"/>
+      <c r="B438" s="15"/>
+      <c r="C438" s="15"/>
+      <c r="D438" s="18"/>
+      <c r="E438" s="15"/>
+      <c r="F438" s="15"/>
+      <c r="G438" s="15"/>
+      <c r="H438" s="15"/>
+      <c r="I438" s="15"/>
+      <c r="J438" s="15"/>
+      <c r="K438" s="15"/>
+      <c r="L438" s="15"/>
+      <c r="M438" s="15"/>
+      <c r="N438" s="15"/>
+      <c r="O438" s="15"/>
+      <c r="P438" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="E108:J108"/>
-    <mergeCell ref="E106:J106"/>
-    <mergeCell ref="E109:J109"/>
-    <mergeCell ref="E110:J110"/>
-    <mergeCell ref="E111:J111"/>
-    <mergeCell ref="E112:J112"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="J15:M16"/>
-    <mergeCell ref="E107:J107"/>
+  <mergeCells count="73">
+    <mergeCell ref="D134:J134"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D129:J129"/>
+    <mergeCell ref="D130:J130"/>
+    <mergeCell ref="D131:J131"/>
+    <mergeCell ref="D132:J132"/>
+    <mergeCell ref="D124:J124"/>
+    <mergeCell ref="D125:J125"/>
+    <mergeCell ref="D126:J126"/>
+    <mergeCell ref="D127:J127"/>
+    <mergeCell ref="D133:J133"/>
+    <mergeCell ref="D119:J119"/>
+    <mergeCell ref="D120:J120"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="D122:J122"/>
+    <mergeCell ref="D123:J123"/>
+    <mergeCell ref="A159:O161"/>
+    <mergeCell ref="A140:D141"/>
+    <mergeCell ref="A142:D143"/>
+    <mergeCell ref="A146:O148"/>
+    <mergeCell ref="A149:O150"/>
+    <mergeCell ref="A151:O152"/>
+    <mergeCell ref="A153:O154"/>
+    <mergeCell ref="A155:O158"/>
+    <mergeCell ref="N140:O141"/>
+    <mergeCell ref="N142:O143"/>
+    <mergeCell ref="A138:D139"/>
+    <mergeCell ref="N138:O139"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="D106:J106"/>
+    <mergeCell ref="D107:J107"/>
+    <mergeCell ref="D108:J108"/>
+    <mergeCell ref="D109:J109"/>
+    <mergeCell ref="D110:J110"/>
+    <mergeCell ref="D111:J111"/>
+    <mergeCell ref="D112:J112"/>
+    <mergeCell ref="D113:J113"/>
+    <mergeCell ref="D114:J114"/>
+    <mergeCell ref="D115:J115"/>
+    <mergeCell ref="D116:J116"/>
+    <mergeCell ref="D117:J117"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="J75:N76"/>
+    <mergeCell ref="J77:N78"/>
+    <mergeCell ref="D104:J105"/>
     <mergeCell ref="J63:N64"/>
     <mergeCell ref="J65:N66"/>
     <mergeCell ref="J67:N68"/>
     <mergeCell ref="J69:O70"/>
     <mergeCell ref="J71:N72"/>
     <mergeCell ref="J73:N74"/>
-    <mergeCell ref="J19:M20"/>
-    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="N104:N105"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:H18"/>
     <mergeCell ref="J17:M18"/>
     <mergeCell ref="N17:N18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="J15:M16"/>
+    <mergeCell ref="J19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="M104:M105"/>
     <mergeCell ref="C29:N53"/>
     <mergeCell ref="J57:N58"/>
     <mergeCell ref="J59:N60"/>
     <mergeCell ref="J61:N62"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="J75:N76"/>
-    <mergeCell ref="J77:N78"/>
-    <mergeCell ref="N120:O121"/>
-    <mergeCell ref="N122:O123"/>
-    <mergeCell ref="N124:O125"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="E116:J116"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="A141:O143"/>
     <mergeCell ref="B104:B105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="A120:D121"/>
-    <mergeCell ref="A122:D123"/>
-    <mergeCell ref="A124:D125"/>
-    <mergeCell ref="E113:J113"/>
-    <mergeCell ref="A128:O130"/>
-    <mergeCell ref="A131:O132"/>
-    <mergeCell ref="A133:O134"/>
-    <mergeCell ref="A135:O136"/>
-    <mergeCell ref="A137:O140"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J59" r:id="rId1" display="sales@gmcendustriyel.com" xr:uid="{4EAC34DF-F066-4A1A-92F6-25194520882D}"/>

--- a/src/main/resources/excel/gmc-offer-letter-temp.xlsx
+++ b/src/main/resources/excel/gmc-offer-letter-temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\MyGit\eclipse\omak-backend\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF38CF-76CB-44A6-9F7E-6373CE7F1A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CDF6DD-3D3B-4864-B5E6-04A3E2A05C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2857,15 +2857,6 @@
     </r>
   </si>
   <si>
-    <t>#Amount</t>
-  </si>
-  <si>
-    <t>#Tax</t>
-  </si>
-  <si>
-    <t>#TotalAmount</t>
-  </si>
-  <si>
     <t>#brand</t>
   </si>
   <si>
@@ -2912,6 +2903,15 @@
   </si>
   <si>
     <t>#CustomerNo</t>
+  </si>
+  <si>
+    <t>#Amount 137x13</t>
+  </si>
+  <si>
+    <t>#Tax 139x13</t>
+  </si>
+  <si>
+    <t>#TotalAmount 141x13</t>
   </si>
 </sst>
 </file>
@@ -3304,9 +3304,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3324,6 +3321,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -46970,8 +46970,8 @@
   </sheetPr>
   <dimension ref="A1:AM438"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A80" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108:J108"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A128" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -47083,7 +47083,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -47096,7 +47096,7 @@
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
       <c r="N15" s="42" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="Q15" s="23" t="s">
         <v>0</v>
@@ -47123,7 +47123,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
@@ -47136,7 +47136,7 @@
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
       <c r="N17" s="44" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="Q17" s="23" t="s">
         <v>0</v>
@@ -47167,7 +47167,7 @@
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="36" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="23" t="s">
@@ -47772,7 +47772,7 @@
     </row>
     <row r="57" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J57" s="39" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K57" s="39"/>
       <c r="L57" s="39"/>
@@ -47796,7 +47796,7 @@
     </row>
     <row r="59" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J59" s="40" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="K59" s="39"/>
       <c r="L59" s="39"/>
@@ -47820,7 +47820,7 @@
     </row>
     <row r="61" spans="3:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J61" s="41" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="K61" s="41"/>
       <c r="L61" s="41"/>
@@ -48236,34 +48236,34 @@
         <v>1</v>
       </c>
       <c r="B106" s="32" t="s">
+        <v>898</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>897</v>
+      </c>
+      <c r="D106" s="47" t="s">
+        <v>899</v>
+      </c>
+      <c r="E106" s="47"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47"/>
+      <c r="J106" s="47"/>
+      <c r="K106" s="32" t="s">
+        <v>900</v>
+      </c>
+      <c r="L106" s="32" t="s">
         <v>901</v>
       </c>
-      <c r="C106" s="32" t="s">
-        <v>900</v>
-      </c>
-      <c r="D106" s="48" t="s">
+      <c r="M106" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="48"/>
-      <c r="K106" s="32" t="s">
+      <c r="N106" s="33" t="s">
         <v>903</v>
       </c>
-      <c r="L106" s="32" t="s">
+      <c r="O106" s="32" t="s">
         <v>904</v>
-      </c>
-      <c r="M106" s="33" t="s">
-        <v>905</v>
-      </c>
-      <c r="N106" s="33" t="s">
-        <v>906</v>
-      </c>
-      <c r="O106" s="32" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -48272,13 +48272,13 @@
       </c>
       <c r="B107" s="32"/>
       <c r="C107" s="32"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="48"/>
-      <c r="J107" s="48"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="47"/>
       <c r="K107" s="32"/>
       <c r="L107" s="32"/>
       <c r="M107" s="33"/>
@@ -48291,13 +48291,13 @@
       </c>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="48"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="47"/>
       <c r="K108" s="32"/>
       <c r="L108" s="32"/>
       <c r="M108" s="33"/>
@@ -48310,13 +48310,13 @@
       </c>
       <c r="B109" s="32"/>
       <c r="C109" s="32"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="47"/>
       <c r="K109" s="32"/>
       <c r="L109" s="32"/>
       <c r="M109" s="33"/>
@@ -48329,13 +48329,13 @@
       </c>
       <c r="B110" s="32"/>
       <c r="C110" s="32"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
       <c r="K110" s="32"/>
       <c r="L110" s="32"/>
       <c r="M110" s="33"/>
@@ -48348,13 +48348,13 @@
       </c>
       <c r="B111" s="32"/>
       <c r="C111" s="32"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="48"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
       <c r="K111" s="32"/>
       <c r="L111" s="32"/>
       <c r="M111" s="33"/>
@@ -48367,13 +48367,13 @@
       </c>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="48"/>
-      <c r="J112" s="48"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
       <c r="K112" s="32"/>
       <c r="L112" s="32"/>
       <c r="M112" s="33"/>
@@ -48386,13 +48386,13 @@
       </c>
       <c r="B113" s="32"/>
       <c r="C113" s="32"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="48"/>
-      <c r="J113" s="48"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
       <c r="K113" s="32"/>
       <c r="L113" s="32"/>
       <c r="M113" s="33"/>
@@ -48405,13 +48405,13 @@
       </c>
       <c r="B114" s="32"/>
       <c r="C114" s="32"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="48"/>
-      <c r="H114" s="48"/>
-      <c r="I114" s="48"/>
-      <c r="J114" s="48"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
       <c r="K114" s="32"/>
       <c r="L114" s="32"/>
       <c r="M114" s="33"/>
@@ -48424,13 +48424,13 @@
       </c>
       <c r="B115" s="32"/>
       <c r="C115" s="32"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
-      <c r="H115" s="48"/>
-      <c r="I115" s="48"/>
-      <c r="J115" s="48"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
       <c r="K115" s="32"/>
       <c r="L115" s="32"/>
       <c r="M115" s="33"/>
@@ -48443,13 +48443,13 @@
       </c>
       <c r="B116" s="32"/>
       <c r="C116" s="32"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="48"/>
-      <c r="J116" s="48"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="47"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="47"/>
       <c r="K116" s="32"/>
       <c r="L116" s="32"/>
       <c r="M116" s="33"/>
@@ -48462,13 +48462,13 @@
       </c>
       <c r="B117" s="32"/>
       <c r="C117" s="32"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="48"/>
-      <c r="H117" s="48"/>
-      <c r="I117" s="48"/>
-      <c r="J117" s="48"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
       <c r="K117" s="32"/>
       <c r="L117" s="32"/>
       <c r="M117" s="33"/>
@@ -48481,13 +48481,13 @@
       </c>
       <c r="B118" s="32"/>
       <c r="C118" s="32"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="48"/>
-      <c r="J118" s="48"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
       <c r="K118" s="32"/>
       <c r="L118" s="32"/>
       <c r="M118" s="33"/>
@@ -48500,13 +48500,13 @@
       </c>
       <c r="B119" s="32"/>
       <c r="C119" s="32"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="48"/>
-      <c r="I119" s="48"/>
-      <c r="J119" s="48"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
       <c r="K119" s="32"/>
       <c r="L119" s="32"/>
       <c r="M119" s="33"/>
@@ -48519,13 +48519,13 @@
       </c>
       <c r="B120" s="32"/>
       <c r="C120" s="32"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="48"/>
-      <c r="J120" s="48"/>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="47"/>
       <c r="K120" s="32"/>
       <c r="L120" s="32"/>
       <c r="M120" s="33"/>
@@ -48538,13 +48538,13 @@
       </c>
       <c r="B121" s="32"/>
       <c r="C121" s="32"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="47"/>
+      <c r="J121" s="47"/>
       <c r="K121" s="32"/>
       <c r="L121" s="32"/>
       <c r="M121" s="33"/>
@@ -48557,13 +48557,13 @@
       </c>
       <c r="B122" s="32"/>
       <c r="C122" s="32"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="47"/>
       <c r="K122" s="32"/>
       <c r="L122" s="32"/>
       <c r="M122" s="33"/>
@@ -48576,13 +48576,13 @@
       </c>
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="48"/>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="47"/>
       <c r="K123" s="32"/>
       <c r="L123" s="32"/>
       <c r="M123" s="33"/>
@@ -48595,13 +48595,13 @@
       </c>
       <c r="B124" s="32"/>
       <c r="C124" s="32"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
       <c r="K124" s="32"/>
       <c r="L124" s="32"/>
       <c r="M124" s="33"/>
@@ -48614,13 +48614,13 @@
       </c>
       <c r="B125" s="32"/>
       <c r="C125" s="32"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="47"/>
       <c r="K125" s="32"/>
       <c r="L125" s="32"/>
       <c r="M125" s="33"/>
@@ -48633,13 +48633,13 @@
       </c>
       <c r="B126" s="32"/>
       <c r="C126" s="32"/>
-      <c r="D126" s="48"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="47"/>
+      <c r="I126" s="47"/>
+      <c r="J126" s="47"/>
       <c r="K126" s="32"/>
       <c r="L126" s="32"/>
       <c r="M126" s="33"/>
@@ -48652,13 +48652,13 @@
       </c>
       <c r="B127" s="32"/>
       <c r="C127" s="32"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="48"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="48"/>
-      <c r="I127" s="48"/>
-      <c r="J127" s="48"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="47"/>
+      <c r="J127" s="47"/>
       <c r="K127" s="32"/>
       <c r="L127" s="32"/>
       <c r="M127" s="33"/>
@@ -48671,13 +48671,13 @@
       </c>
       <c r="B128" s="32"/>
       <c r="C128" s="32"/>
-      <c r="D128" s="48"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="48"/>
-      <c r="J128" s="48"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="47"/>
+      <c r="J128" s="47"/>
       <c r="K128" s="32"/>
       <c r="L128" s="32"/>
       <c r="M128" s="33"/>
@@ -48690,13 +48690,13 @@
       </c>
       <c r="B129" s="32"/>
       <c r="C129" s="32"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="48"/>
-      <c r="F129" s="48"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="48"/>
-      <c r="I129" s="48"/>
-      <c r="J129" s="48"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="47"/>
       <c r="K129" s="32"/>
       <c r="L129" s="32"/>
       <c r="M129" s="33"/>
@@ -48709,13 +48709,13 @@
       </c>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
-      <c r="D130" s="48"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="48"/>
-      <c r="I130" s="48"/>
-      <c r="J130" s="48"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47"/>
+      <c r="J130" s="47"/>
       <c r="K130" s="32"/>
       <c r="L130" s="32"/>
       <c r="M130" s="33"/>
@@ -48728,13 +48728,13 @@
       </c>
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="48"/>
-      <c r="I131" s="48"/>
-      <c r="J131" s="48"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="47"/>
       <c r="K131" s="32"/>
       <c r="L131" s="32"/>
       <c r="M131" s="33"/>
@@ -48747,13 +48747,13 @@
       </c>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="48"/>
-      <c r="I132" s="48"/>
-      <c r="J132" s="48"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="47"/>
       <c r="K132" s="32"/>
       <c r="L132" s="32"/>
       <c r="M132" s="33"/>
@@ -48766,13 +48766,13 @@
       </c>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="48"/>
-      <c r="I133" s="48"/>
-      <c r="J133" s="48"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="47"/>
+      <c r="J133" s="47"/>
       <c r="K133" s="32"/>
       <c r="L133" s="32"/>
       <c r="M133" s="33"/>
@@ -48785,13 +48785,13 @@
       </c>
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
-      <c r="D134" s="48"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="48"/>
-      <c r="I134" s="48"/>
-      <c r="J134" s="48"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
       <c r="K134" s="32"/>
       <c r="L134" s="32"/>
       <c r="M134" s="33"/>
@@ -48804,13 +48804,13 @@
       </c>
       <c r="B135" s="32"/>
       <c r="C135" s="32"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="48"/>
-      <c r="I135" s="48"/>
-      <c r="J135" s="48"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
       <c r="K135" s="32"/>
       <c r="L135" s="32"/>
       <c r="M135" s="33"/>
@@ -48845,10 +48845,10 @@
       <c r="B138" s="46"/>
       <c r="C138" s="46"/>
       <c r="D138" s="46"/>
-      <c r="N138" s="47" t="s">
-        <v>897</v>
-      </c>
-      <c r="O138" s="47"/>
+      <c r="N138" s="53" t="s">
+        <v>913</v>
+      </c>
+      <c r="O138" s="53"/>
       <c r="P138" s="15"/>
     </row>
     <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -48856,8 +48856,8 @@
       <c r="B139" s="46"/>
       <c r="C139" s="46"/>
       <c r="D139" s="46"/>
-      <c r="N139" s="47"/>
-      <c r="O139" s="47"/>
+      <c r="N139" s="53"/>
+      <c r="O139" s="53"/>
       <c r="P139" s="15"/>
     </row>
     <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -48867,10 +48867,10 @@
       <c r="B140" s="46"/>
       <c r="C140" s="46"/>
       <c r="D140" s="46"/>
-      <c r="N140" s="47" t="s">
-        <v>898</v>
-      </c>
-      <c r="O140" s="47"/>
+      <c r="N140" s="53" t="s">
+        <v>914</v>
+      </c>
+      <c r="O140" s="53"/>
       <c r="P140" s="15"/>
     </row>
     <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -48878,8 +48878,8 @@
       <c r="B141" s="46"/>
       <c r="C141" s="46"/>
       <c r="D141" s="46"/>
-      <c r="N141" s="47"/>
-      <c r="O141" s="47"/>
+      <c r="N141" s="53"/>
+      <c r="O141" s="53"/>
       <c r="P141" s="15"/>
     </row>
     <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -48889,10 +48889,10 @@
       <c r="B142" s="46"/>
       <c r="C142" s="46"/>
       <c r="D142" s="46"/>
-      <c r="N142" s="47" t="s">
-        <v>899</v>
-      </c>
-      <c r="O142" s="47"/>
+      <c r="N142" s="53" t="s">
+        <v>915</v>
+      </c>
+      <c r="O142" s="53"/>
       <c r="P142" s="15"/>
     </row>
     <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -48900,8 +48900,8 @@
       <c r="B143" s="46"/>
       <c r="C143" s="46"/>
       <c r="D143" s="46"/>
-      <c r="N143" s="47"/>
-      <c r="O143" s="47"/>
+      <c r="N143" s="53"/>
+      <c r="O143" s="53"/>
       <c r="P143" s="15"/>
     </row>
     <row r="144" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -48926,303 +48926,303 @@
       <c r="P145" s="15"/>
     </row>
     <row r="146" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="51" t="s">
+      <c r="A146" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B146" s="51"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
-      <c r="F146" s="51"/>
-      <c r="G146" s="51"/>
-      <c r="H146" s="51"/>
-      <c r="I146" s="51"/>
-      <c r="J146" s="51"/>
-      <c r="K146" s="51"/>
-      <c r="L146" s="51"/>
-      <c r="M146" s="51"/>
-      <c r="N146" s="51"/>
-      <c r="O146" s="51"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="50"/>
+      <c r="G146" s="50"/>
+      <c r="H146" s="50"/>
+      <c r="I146" s="50"/>
+      <c r="J146" s="50"/>
+      <c r="K146" s="50"/>
+      <c r="L146" s="50"/>
+      <c r="M146" s="50"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="50"/>
       <c r="P146" s="15"/>
     </row>
     <row r="147" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
-      <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="51"/>
-      <c r="F147" s="51"/>
-      <c r="G147" s="51"/>
-      <c r="H147" s="51"/>
-      <c r="I147" s="51"/>
-      <c r="J147" s="51"/>
-      <c r="K147" s="51"/>
-      <c r="L147" s="51"/>
-      <c r="M147" s="51"/>
-      <c r="N147" s="51"/>
-      <c r="O147" s="51"/>
+      <c r="A147" s="50"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="50"/>
+      <c r="H147" s="50"/>
+      <c r="I147" s="50"/>
+      <c r="J147" s="50"/>
+      <c r="K147" s="50"/>
+      <c r="L147" s="50"/>
+      <c r="M147" s="50"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="50"/>
       <c r="P147" s="15"/>
     </row>
     <row r="148" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
-      <c r="B148" s="51"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
-      <c r="F148" s="51"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="51"/>
-      <c r="I148" s="51"/>
-      <c r="J148" s="51"/>
-      <c r="K148" s="51"/>
-      <c r="L148" s="51"/>
-      <c r="M148" s="51"/>
-      <c r="N148" s="51"/>
-      <c r="O148" s="51"/>
+      <c r="A148" s="50"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
+      <c r="G148" s="50"/>
+      <c r="H148" s="50"/>
+      <c r="I148" s="50"/>
+      <c r="J148" s="50"/>
+      <c r="K148" s="50"/>
+      <c r="L148" s="50"/>
+      <c r="M148" s="50"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="50"/>
       <c r="P148" s="15"/>
     </row>
     <row r="149" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="52" t="s">
+      <c r="A149" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B149" s="52"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="52"/>
-      <c r="E149" s="52"/>
-      <c r="F149" s="52"/>
-      <c r="G149" s="52"/>
-      <c r="H149" s="52"/>
-      <c r="I149" s="52"/>
-      <c r="J149" s="52"/>
-      <c r="K149" s="52"/>
-      <c r="L149" s="52"/>
-      <c r="M149" s="52"/>
-      <c r="N149" s="52"/>
-      <c r="O149" s="52"/>
+      <c r="B149" s="51"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="51"/>
+      <c r="H149" s="51"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="51"/>
+      <c r="K149" s="51"/>
+      <c r="L149" s="51"/>
+      <c r="M149" s="51"/>
+      <c r="N149" s="51"/>
+      <c r="O149" s="51"/>
       <c r="P149" s="15"/>
     </row>
     <row r="150" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="52"/>
-      <c r="B150" s="52"/>
-      <c r="C150" s="52"/>
-      <c r="D150" s="52"/>
-      <c r="E150" s="52"/>
-      <c r="F150" s="52"/>
-      <c r="G150" s="52"/>
-      <c r="H150" s="52"/>
-      <c r="I150" s="52"/>
-      <c r="J150" s="52"/>
-      <c r="K150" s="52"/>
-      <c r="L150" s="52"/>
-      <c r="M150" s="52"/>
-      <c r="N150" s="52"/>
-      <c r="O150" s="52"/>
+      <c r="A150" s="51"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="51"/>
+      <c r="I150" s="51"/>
+      <c r="J150" s="51"/>
+      <c r="K150" s="51"/>
+      <c r="L150" s="51"/>
+      <c r="M150" s="51"/>
+      <c r="N150" s="51"/>
+      <c r="O150" s="51"/>
       <c r="P150" s="15"/>
     </row>
     <row r="151" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="52" t="s">
+      <c r="A151" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="52"/>
-      <c r="C151" s="52"/>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="52"/>
-      <c r="G151" s="52"/>
-      <c r="H151" s="52"/>
-      <c r="I151" s="52"/>
-      <c r="J151" s="52"/>
-      <c r="K151" s="52"/>
-      <c r="L151" s="52"/>
-      <c r="M151" s="52"/>
-      <c r="N151" s="52"/>
-      <c r="O151" s="52"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="51"/>
+      <c r="G151" s="51"/>
+      <c r="H151" s="51"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="51"/>
+      <c r="K151" s="51"/>
+      <c r="L151" s="51"/>
+      <c r="M151" s="51"/>
+      <c r="N151" s="51"/>
+      <c r="O151" s="51"/>
       <c r="P151" s="15"/>
     </row>
     <row r="152" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="52"/>
-      <c r="B152" s="52"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="52"/>
-      <c r="E152" s="52"/>
-      <c r="F152" s="52"/>
-      <c r="G152" s="52"/>
-      <c r="H152" s="52"/>
-      <c r="I152" s="52"/>
-      <c r="J152" s="52"/>
-      <c r="K152" s="52"/>
-      <c r="L152" s="52"/>
-      <c r="M152" s="52"/>
-      <c r="N152" s="52"/>
-      <c r="O152" s="52"/>
+      <c r="A152" s="51"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="51"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="51"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="51"/>
+      <c r="L152" s="51"/>
+      <c r="M152" s="51"/>
+      <c r="N152" s="51"/>
+      <c r="O152" s="51"/>
       <c r="P152" s="15"/>
     </row>
     <row r="153" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="52" t="s">
+      <c r="A153" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="B153" s="52"/>
-      <c r="C153" s="52"/>
-      <c r="D153" s="52"/>
-      <c r="E153" s="52"/>
-      <c r="F153" s="52"/>
-      <c r="G153" s="52"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="52"/>
-      <c r="J153" s="52"/>
-      <c r="K153" s="52"/>
-      <c r="L153" s="52"/>
-      <c r="M153" s="52"/>
-      <c r="N153" s="52"/>
-      <c r="O153" s="52"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="51"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="51"/>
+      <c r="K153" s="51"/>
+      <c r="L153" s="51"/>
+      <c r="M153" s="51"/>
+      <c r="N153" s="51"/>
+      <c r="O153" s="51"/>
       <c r="P153" s="15"/>
     </row>
     <row r="154" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="52"/>
-      <c r="B154" s="52"/>
-      <c r="C154" s="52"/>
-      <c r="D154" s="52"/>
-      <c r="E154" s="52"/>
-      <c r="F154" s="52"/>
-      <c r="G154" s="52"/>
-      <c r="H154" s="52"/>
-      <c r="I154" s="52"/>
-      <c r="J154" s="52"/>
-      <c r="K154" s="52"/>
-      <c r="L154" s="52"/>
-      <c r="M154" s="52"/>
-      <c r="N154" s="52"/>
-      <c r="O154" s="52"/>
+      <c r="A154" s="51"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="51"/>
+      <c r="D154" s="51"/>
+      <c r="E154" s="51"/>
+      <c r="F154" s="51"/>
+      <c r="G154" s="51"/>
+      <c r="H154" s="51"/>
+      <c r="I154" s="51"/>
+      <c r="J154" s="51"/>
+      <c r="K154" s="51"/>
+      <c r="L154" s="51"/>
+      <c r="M154" s="51"/>
+      <c r="N154" s="51"/>
+      <c r="O154" s="51"/>
       <c r="P154" s="15"/>
     </row>
     <row r="155" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="53" t="s">
+      <c r="A155" s="52" t="s">
         <v>896</v>
       </c>
-      <c r="B155" s="53"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="53"/>
-      <c r="E155" s="53"/>
-      <c r="F155" s="53"/>
-      <c r="G155" s="53"/>
-      <c r="H155" s="53"/>
-      <c r="I155" s="53"/>
-      <c r="J155" s="53"/>
-      <c r="K155" s="53"/>
-      <c r="L155" s="53"/>
-      <c r="M155" s="53"/>
-      <c r="N155" s="53"/>
-      <c r="O155" s="53"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="52"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="52"/>
+      <c r="G155" s="52"/>
+      <c r="H155" s="52"/>
+      <c r="I155" s="52"/>
+      <c r="J155" s="52"/>
+      <c r="K155" s="52"/>
+      <c r="L155" s="52"/>
+      <c r="M155" s="52"/>
+      <c r="N155" s="52"/>
+      <c r="O155" s="52"/>
       <c r="P155" s="15"/>
     </row>
     <row r="156" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="53"/>
-      <c r="B156" s="53"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="53"/>
-      <c r="E156" s="53"/>
-      <c r="F156" s="53"/>
-      <c r="G156" s="53"/>
-      <c r="H156" s="53"/>
-      <c r="I156" s="53"/>
-      <c r="J156" s="53"/>
-      <c r="K156" s="53"/>
-      <c r="L156" s="53"/>
-      <c r="M156" s="53"/>
-      <c r="N156" s="53"/>
-      <c r="O156" s="53"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="52"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="52"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="52"/>
+      <c r="H156" s="52"/>
+      <c r="I156" s="52"/>
+      <c r="J156" s="52"/>
+      <c r="K156" s="52"/>
+      <c r="L156" s="52"/>
+      <c r="M156" s="52"/>
+      <c r="N156" s="52"/>
+      <c r="O156" s="52"/>
       <c r="P156" s="15"/>
     </row>
     <row r="157" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="53"/>
-      <c r="B157" s="53"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="53"/>
-      <c r="E157" s="53"/>
-      <c r="F157" s="53"/>
-      <c r="G157" s="53"/>
-      <c r="H157" s="53"/>
-      <c r="I157" s="53"/>
-      <c r="J157" s="53"/>
-      <c r="K157" s="53"/>
-      <c r="L157" s="53"/>
-      <c r="M157" s="53"/>
-      <c r="N157" s="53"/>
-      <c r="O157" s="53"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="52"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="52"/>
+      <c r="H157" s="52"/>
+      <c r="I157" s="52"/>
+      <c r="J157" s="52"/>
+      <c r="K157" s="52"/>
+      <c r="L157" s="52"/>
+      <c r="M157" s="52"/>
+      <c r="N157" s="52"/>
+      <c r="O157" s="52"/>
       <c r="P157" s="15"/>
     </row>
     <row r="158" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="53"/>
-      <c r="B158" s="53"/>
-      <c r="C158" s="53"/>
-      <c r="D158" s="53"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="53"/>
-      <c r="H158" s="53"/>
-      <c r="I158" s="53"/>
-      <c r="J158" s="53"/>
-      <c r="K158" s="53"/>
-      <c r="L158" s="53"/>
-      <c r="M158" s="53"/>
-      <c r="N158" s="53"/>
-      <c r="O158" s="53"/>
+      <c r="A158" s="52"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="52"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52"/>
+      <c r="I158" s="52"/>
+      <c r="J158" s="52"/>
+      <c r="K158" s="52"/>
+      <c r="L158" s="52"/>
+      <c r="M158" s="52"/>
+      <c r="N158" s="52"/>
+      <c r="O158" s="52"/>
       <c r="P158" s="15"/>
     </row>
     <row r="159" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="49" t="s">
+      <c r="A159" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="49"/>
-      <c r="C159" s="50"/>
-      <c r="D159" s="50"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="50"/>
-      <c r="G159" s="50"/>
-      <c r="H159" s="50"/>
-      <c r="I159" s="50"/>
-      <c r="J159" s="50"/>
-      <c r="K159" s="50"/>
-      <c r="L159" s="50"/>
-      <c r="M159" s="50"/>
-      <c r="N159" s="50"/>
-      <c r="O159" s="50"/>
+      <c r="B159" s="48"/>
+      <c r="C159" s="49"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="49"/>
+      <c r="F159" s="49"/>
+      <c r="G159" s="49"/>
+      <c r="H159" s="49"/>
+      <c r="I159" s="49"/>
+      <c r="J159" s="49"/>
+      <c r="K159" s="49"/>
+      <c r="L159" s="49"/>
+      <c r="M159" s="49"/>
+      <c r="N159" s="49"/>
+      <c r="O159" s="49"/>
       <c r="P159" s="15"/>
     </row>
     <row r="160" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="50"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="50"/>
-      <c r="G160" s="50"/>
-      <c r="H160" s="50"/>
-      <c r="I160" s="50"/>
-      <c r="J160" s="50"/>
-      <c r="K160" s="50"/>
-      <c r="L160" s="50"/>
-      <c r="M160" s="50"/>
-      <c r="N160" s="50"/>
-      <c r="O160" s="50"/>
+      <c r="A160" s="49"/>
+      <c r="B160" s="49"/>
+      <c r="C160" s="49"/>
+      <c r="D160" s="49"/>
+      <c r="E160" s="49"/>
+      <c r="F160" s="49"/>
+      <c r="G160" s="49"/>
+      <c r="H160" s="49"/>
+      <c r="I160" s="49"/>
+      <c r="J160" s="49"/>
+      <c r="K160" s="49"/>
+      <c r="L160" s="49"/>
+      <c r="M160" s="49"/>
+      <c r="N160" s="49"/>
+      <c r="O160" s="49"/>
       <c r="P160" s="15"/>
     </row>
     <row r="161" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="50"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="50"/>
-      <c r="D161" s="50"/>
-      <c r="E161" s="50"/>
-      <c r="F161" s="50"/>
-      <c r="G161" s="50"/>
-      <c r="H161" s="50"/>
-      <c r="I161" s="50"/>
-      <c r="J161" s="50"/>
-      <c r="K161" s="50"/>
-      <c r="L161" s="50"/>
-      <c r="M161" s="50"/>
-      <c r="N161" s="50"/>
-      <c r="O161" s="50"/>
+      <c r="A161" s="49"/>
+      <c r="B161" s="49"/>
+      <c r="C161" s="49"/>
+      <c r="D161" s="49"/>
+      <c r="E161" s="49"/>
+      <c r="F161" s="49"/>
+      <c r="G161" s="49"/>
+      <c r="H161" s="49"/>
+      <c r="I161" s="49"/>
+      <c r="J161" s="49"/>
+      <c r="K161" s="49"/>
+      <c r="L161" s="49"/>
+      <c r="M161" s="49"/>
+      <c r="N161" s="49"/>
+      <c r="O161" s="49"/>
       <c r="P161" s="15"/>
     </row>
     <row r="162" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
